--- a/CHS_and_GHTS_top5_motifs.xlsx
+++ b/CHS_and_GHTS_top5_motifs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Desktop/MEX-ArChIPelago/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41E3676-FE15-4144-9D33-72EA48833602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B92759-F72C-BB44-8635-A3C59867895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AD748963-C8C2-4449-B109-D087FDBB628C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>CREB3L3</t>
   </si>
@@ -299,6 +300,69 @@
   </si>
   <si>
     <t>Feature importance</t>
+  </si>
+  <si>
+    <t>FOSL2</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@AFS.Lys@sickly-crimson-badger@HughesLab.MEME@500_fa_memechip_minw3_maxw30_Motif1:</t>
+  </si>
+  <si>
+    <t>0.13987845553164344</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@AFS.Lys@squeaky-charcoal-hummingbird@Halle.Dimont@Motif_1_imw20_astrained:</t>
+  </si>
+  <si>
+    <t>0.11786202503126136</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@AFS.Lys@ready-tan-lizard@HughesLab.MEME@500_fa_memechip_Motif1:</t>
+  </si>
+  <si>
+    <t>0.11144581200342729</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@AFS.Lys@squeaky-charcoal-hummingbird@Halle.Dimont@Motif_1_w20_astrained:</t>
+  </si>
+  <si>
+    <t>0.10630780705363009</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@AFS.Lys@paltry-pink-flounder@HughesLab.MEME@170_fa_memechip_Motif1:</t>
+  </si>
+  <si>
+    <t>0.09625322021394717</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@CHS@frumpy-ivory-nightingale@HughesLab.MEME@Motif1:</t>
+  </si>
+  <si>
+    <t>0.13330841213205902</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@CHS@frumpy-ivory-nightingale@HughesLab.Streme@1000_fa_streme_Motif1:</t>
+  </si>
+  <si>
+    <t>0.0943344837851207</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@CHS@hasty-razzmatazz-newt@HughesLab.MEME@Motif1:</t>
+  </si>
+  <si>
+    <t>0.08926116037011435</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@CHS@frumpy-ivory-nightingale@autosome-ru.ChIPMunk@999seq_21to7_m0:</t>
+  </si>
+  <si>
+    <t>0.0848301624239311</t>
+  </si>
+  <si>
+    <t>FOSL2.NA@CHS@frumpy-ivory-nightingale@autosome-ru.ChIPMunk@999seq_7to15_m0:</t>
+  </si>
+  <si>
+    <t>0.08420174410378783</t>
   </si>
 </sst>
 </file>
@@ -355,10 +419,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -675,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2FDA72-A7B8-B04D-B1FB-1E5EE8899D1D}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,13 +751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -712,7 +775,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -781,7 +844,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
@@ -793,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -801,7 +864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -809,7 +872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -817,7 +880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -825,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -833,12 +896,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
@@ -846,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
@@ -854,7 +917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
@@ -862,7 +925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -870,7 +933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
@@ -878,198 +941,302 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="64" spans="2:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C64" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51DFB3F-32A6-9F4A-9668-D3C5318D4FD5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>